--- a/근전도센서 분석.xlsx
+++ b/근전도센서 분석.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\2022 4학년 1학기\소프트웨어융합캡스톤디자인\제출보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SNG\Undergraduate researcher\NewMeta_HapticGloves\Metaverse_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EC273D-14DF-4E5D-B91D-5C34029541EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0272DA95-A23A-4E3C-A215-BB422F3DC95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -891,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/근전도센서 분석.xlsx
+++ b/근전도센서 분석.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SNG\Undergraduate researcher\NewMeta_HapticGloves\Metaverse_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0272DA95-A23A-4E3C-A215-BB422F3DC95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C3DF1A-44F9-4E73-92B1-BCD7A04B590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="71">
   <si>
     <t xml:space="preserve">4. 동일한 Task를 했을 때 평균값 </t>
   </si>
@@ -265,6 +264,22 @@
   </si>
   <si>
     <t>고준성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말랑한 물체 쥐기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간 물체 쥐기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱딱한 물체 쥐기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,15 +907,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="7.875" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
@@ -1257,8 +1272,8 @@
       <c r="C46" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="14" t="s">
-        <v>29</v>
+      <c r="D46" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>37</v>
@@ -1347,8 +1362,8 @@
     </row>
     <row r="47" spans="3:48">
       <c r="C47" s="13"/>
-      <c r="D47" s="14" t="s">
-        <v>30</v>
+      <c r="D47" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
@@ -1397,8 +1412,8 @@
     </row>
     <row r="48" spans="3:48">
       <c r="C48" s="13"/>
-      <c r="D48" s="14" t="s">
-        <v>31</v>
+      <c r="D48" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
@@ -1950,7 +1965,7 @@
         <v>48</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E59" s="18" t="s">
         <v>37</v>
@@ -2007,7 +2022,7 @@
     <row r="60" spans="3:48">
       <c r="C60" s="13"/>
       <c r="D60" s="21" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -2054,7 +2069,7 @@
     <row r="61" spans="3:48">
       <c r="C61" s="13"/>
       <c r="D61" s="21" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -2552,7 +2567,7 @@
         <v>48</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>38</v>
@@ -2609,7 +2624,7 @@
     <row r="72" spans="3:47">
       <c r="C72" s="13"/>
       <c r="D72" s="21" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="18"/>
@@ -2656,7 +2671,7 @@
     <row r="73" spans="3:47">
       <c r="C73" s="13"/>
       <c r="D73" s="21" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="18"/>
@@ -3154,7 +3169,7 @@
         <v>48</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>37</v>
@@ -3211,7 +3226,7 @@
     <row r="84" spans="3:47">
       <c r="C84" s="13"/>
       <c r="D84" s="21" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="18"/>
@@ -3258,7 +3273,7 @@
     <row r="85" spans="3:47">
       <c r="C85" s="13"/>
       <c r="D85" s="21" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="18"/>
@@ -3756,7 +3771,7 @@
         <v>48</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>43</v>
@@ -3813,7 +3828,7 @@
     <row r="96" spans="3:47">
       <c r="C96" s="13"/>
       <c r="D96" s="21" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="18"/>
@@ -3857,10 +3872,10 @@
       <c r="AT96" s="18"/>
       <c r="AU96" s="22"/>
     </row>
-    <row r="97" spans="3:47">
+    <row r="97" spans="2:47">
       <c r="C97" s="13"/>
       <c r="D97" s="21" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="18"/>
@@ -3904,7 +3919,7 @@
       <c r="AT97" s="18"/>
       <c r="AU97" s="22"/>
     </row>
-    <row r="98" spans="3:47">
+    <row r="98" spans="2:47">
       <c r="C98" s="5"/>
       <c r="D98" s="21"/>
       <c r="E98" s="11"/>
@@ -3945,7 +3960,7 @@
       <c r="AT98" s="18"/>
       <c r="AU98" s="22"/>
     </row>
-    <row r="99" spans="3:47" ht="66.75" thickBot="1">
+    <row r="99" spans="2:47" ht="66.75" thickBot="1">
       <c r="C99" s="16" t="s">
         <v>49</v>
       </c>
@@ -4004,7 +4019,7 @@
       <c r="AT99" s="18"/>
       <c r="AU99" s="22"/>
     </row>
-    <row r="100" spans="3:47">
+    <row r="100" spans="2:47">
       <c r="C100" s="13"/>
       <c r="D100" s="21" t="s">
         <v>46</v>
@@ -4051,7 +4066,7 @@
       <c r="AT100" s="18"/>
       <c r="AU100" s="22"/>
     </row>
-    <row r="101" spans="3:47">
+    <row r="101" spans="2:47">
       <c r="C101" s="13"/>
       <c r="D101" s="21" t="s">
         <v>47</v>
@@ -4098,7 +4113,7 @@
       <c r="AT101" s="18"/>
       <c r="AU101" s="22"/>
     </row>
-    <row r="102" spans="3:47">
+    <row r="102" spans="2:47">
       <c r="C102" s="5"/>
       <c r="D102" s="21"/>
       <c r="E102" s="11"/>
@@ -4139,7 +4154,7 @@
       <c r="AT102" s="18"/>
       <c r="AU102" s="22"/>
     </row>
-    <row r="103" spans="3:47">
+    <row r="103" spans="2:47">
       <c r="C103" s="5" t="s">
         <v>48</v>
       </c>
@@ -4186,7 +4201,7 @@
       <c r="AT103" s="18"/>
       <c r="AU103" s="22"/>
     </row>
-    <row r="104" spans="3:47" ht="17.25" thickBot="1">
+    <row r="104" spans="2:47" ht="17.25" thickBot="1">
       <c r="C104" s="7" t="s">
         <v>49</v>
       </c>
@@ -4233,8 +4248,11 @@
       <c r="AT104" s="24"/>
       <c r="AU104" s="25"/>
     </row>
-    <row r="105" spans="3:47" ht="17.25" thickBot="1"/>
-    <row r="106" spans="3:47">
+    <row r="105" spans="2:47" ht="17.25" thickBot="1"/>
+    <row r="106" spans="2:47">
+      <c r="B106" t="s">
+        <v>70</v>
+      </c>
       <c r="C106" s="2" t="s">
         <v>62</v>
       </c>
@@ -4353,12 +4371,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="107" spans="3:47">
+    <row r="107" spans="2:47">
       <c r="C107" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>44</v>
@@ -4412,10 +4430,10 @@
       <c r="AT107" s="18"/>
       <c r="AU107" s="22"/>
     </row>
-    <row r="108" spans="3:47">
+    <row r="108" spans="2:47">
       <c r="C108" s="13"/>
       <c r="D108" s="21" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="18"/>
@@ -4459,10 +4477,10 @@
       <c r="AT108" s="18"/>
       <c r="AU108" s="22"/>
     </row>
-    <row r="109" spans="3:47">
+    <row r="109" spans="2:47">
       <c r="C109" s="13"/>
       <c r="D109" s="21" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E109" s="14"/>
       <c r="F109" s="18"/>
@@ -4506,7 +4524,7 @@
       <c r="AT109" s="18"/>
       <c r="AU109" s="22"/>
     </row>
-    <row r="110" spans="3:47">
+    <row r="110" spans="2:47">
       <c r="C110" s="5"/>
       <c r="D110" s="21"/>
       <c r="E110" s="1"/>
@@ -4547,7 +4565,7 @@
       <c r="AT110" s="18"/>
       <c r="AU110" s="22"/>
     </row>
-    <row r="111" spans="3:47" ht="50.25" thickBot="1">
+    <row r="111" spans="2:47" ht="50.25" thickBot="1">
       <c r="C111" s="16" t="s">
         <v>49</v>
       </c>
@@ -4606,7 +4624,7 @@
       <c r="AT111" s="18"/>
       <c r="AU111" s="22"/>
     </row>
-    <row r="112" spans="3:47">
+    <row r="112" spans="2:47">
       <c r="C112" s="13"/>
       <c r="D112" s="21" t="s">
         <v>46</v>

--- a/근전도센서 분석.xlsx
+++ b/근전도센서 분석.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SNG\Undergraduate researcher\NewMeta_HapticGloves\Metaverse_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C3DF1A-44F9-4E73-92B1-BCD7A04B590A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2837622-EEF9-4AD5-A47D-68495C0E3462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="73">
   <si>
     <t xml:space="preserve">4. 동일한 Task를 했을 때 평균값 </t>
   </si>
@@ -280,6 +280,14 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공 누르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무판 누르기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:D61"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4260,7 +4268,7 @@
         <v>63</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F106" s="19" t="s">
         <v>17</v>
@@ -4376,7 +4384,7 @@
         <v>48</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E107" s="14" t="s">
         <v>44</v>
@@ -4433,7 +4441,7 @@
     <row r="108" spans="2:47">
       <c r="C108" s="13"/>
       <c r="D108" s="21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="18"/>
